--- a/branches/merging/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -957,7 +957,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/epi-ig"/&gt;
     &lt;code value="flavor"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1062,7 +1062,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/epi-ig"/&gt;
     &lt;code value="surfaceform"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1071,7 +1071,7 @@
     <t>AdministrableProductDefinition.property:surfaceform.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsPropertySurfaceForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertySurfaceForm</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.property:surfaceform.status</t>
